--- a/Участок ремонта форм/Документация/Ведомость выдачи СИЗ.xlsx
+++ b/Участок ремонта форм/Документация/Ведомость выдачи СИЗ.xlsx
@@ -5,26 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы Стеклозавод Ведатранзит\СИЗ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="9600" windowHeight="12108"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="9600" windowHeight="12108" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Один человек" sheetId="4" r:id="rId1"/>
+    <sheet name="Респираторы" sheetId="1" r:id="rId2"/>
+    <sheet name="Перчатки" sheetId="2" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Один человек'!$A$1:$F$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Респираторы!$A$1:$F$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="37">
   <si>
     <t>г. Гомель</t>
   </si>
@@ -117,6 +119,47 @@
   </si>
   <si>
     <t>Гавриленко А.Д.</t>
+  </si>
+  <si>
+    <t>перчаток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На выдачу: </t>
+  </si>
+  <si>
+    <t>пар</t>
+  </si>
+  <si>
+    <r>
+      <t>МОЛ _________________</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>А.Д. Гавриленко</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>____________</t>
+    </r>
+  </si>
+  <si>
+    <t>респираторов</t>
+  </si>
+  <si>
+    <t>шт.</t>
   </si>
 </sst>
 </file>
@@ -272,9 +315,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -295,9 +335,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -310,14 +347,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -325,8 +365,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,371 +696,669 @@
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="9" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="23" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="G7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="11" width="9.109375" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <f t="shared" ref="A16:A27" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16">
+      <c r="A17" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16">
+      <c r="A19" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
+      <c r="A20" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16">
+      <c r="A21" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3">
+        <v>8</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16">
+      <c r="A22" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3">
+        <v>8</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16">
+      <c r="A24" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="3">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16">
+      <c r="A25" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="3">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16">
+      <c r="A26" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="3">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="16">
+      <c r="A27" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9">
+        <f>SUM(D14:D27)</f>
+        <v>108</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="A31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1036,19 +1377,474 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="11" width="9.109375" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <f t="shared" ref="A16:A27" si="0">A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="3">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="3">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="3">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9">
+        <f>SUM(D14:D27)</f>
+        <v>140</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
